--- a/Impact Soundworks/Shreddage 3/Spreadsheets/Shreddage 3.xlsx
+++ b/Impact Soundworks/Shreddage 3/Spreadsheets/Shreddage 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3858B-6B84-4885-8E48-7BF3AC28503C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E92880-9476-4C59-A531-AD82A611EE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="780" windowWidth="22575" windowHeight="13740" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="630" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guitar Main" sheetId="1" r:id="rId1"/>
@@ -2573,10 +2573,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -2584,10 +2584,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -4570,7 +4573,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -4578,10 +4581,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -6395,7 +6401,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -6403,10 +6409,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -8304,7 +8313,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8312,10 +8321,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -10129,7 +10141,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -10137,10 +10149,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -11987,10 +12002,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D430E64-5E1E-4DC6-AE82-5D924BA7B1F0}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -11998,10 +12013,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
